--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264857.6357106838</v>
+        <v>263874.8009270605</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5487711.103805874</v>
+        <v>5539643.43490293</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22005207.51391004</v>
+        <v>22056106.39161827</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4043079.23256896</v>
+        <v>4017248.462028073</v>
       </c>
     </row>
     <row r="11">
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>50.19740799690857</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.21387696367703</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2263,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U22" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V22" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>24.40088325534111</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.35309587319854</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X23" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="T24" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="U25" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H26" t="n">
-        <v>43.55459982911461</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F27" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.21387696367704</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V29" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X29" t="n">
-        <v>50.19740799690857</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44.21387696367703</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.40088325534112</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,31 +3028,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C32" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="E33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U34" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.40088325534109</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W35" t="n">
-        <v>43.55459982911465</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>43.55459982911461</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>34.46822845646948</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J38" t="n">
         <v>0.6592771345624158</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="C39" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D39" t="n">
-        <v>44.21387696367703</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.40088325534112</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W40" t="n">
-        <v>50.19740799690857</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="42">
@@ -3822,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>44.21387696367703</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.40088325534112</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>35.1275055910319</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.72024516188256</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C20" t="n">
-        <v>54.72024516188256</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D20" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E20" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F20" t="n">
-        <v>54.72024516188256</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G20" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H20" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I20" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J20" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K20" t="n">
-        <v>51.70333023681584</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L20" t="n">
-        <v>51.70333023681584</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M20" t="n">
-        <v>101.3987641537553</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N20" t="n">
-        <v>151.0941980706948</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7896319876343</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P20" t="n">
-        <v>200.7896319876343</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R20" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S20" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T20" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U20" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V20" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W20" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X20" t="n">
-        <v>99.38072694337451</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.72024516188256</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.015792639752686</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="C21" t="n">
-        <v>4.015792639752686</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="D21" t="n">
-        <v>4.015792639752686</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="E21" t="n">
-        <v>4.015792639752686</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F21" t="n">
-        <v>4.015792639752686</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="G21" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I21" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J21" t="n">
-        <v>4.015792639752686</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K21" t="n">
-        <v>51.70333023681584</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L21" t="n">
-        <v>51.70333023681584</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="M21" t="n">
-        <v>101.3987641537553</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="N21" t="n">
-        <v>101.3987641537553</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="O21" t="n">
-        <v>151.0941980706948</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7896319876343</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R21" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S21" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T21" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U21" t="n">
-        <v>105.4246976840124</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V21" t="n">
-        <v>54.72024516188256</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W21" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X21" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.015792639752686</v>
+        <v>159.5254568166754</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.72024516188256</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="C22" t="n">
-        <v>54.72024516188256</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="D22" t="n">
-        <v>54.72024516188256</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="E22" t="n">
-        <v>54.72024516188256</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="F22" t="n">
-        <v>54.72024516188256</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="G22" t="n">
-        <v>4.015792639752686</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="H22" t="n">
-        <v>4.015792639752686</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="I22" t="n">
-        <v>4.015792639752686</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="J22" t="n">
-        <v>4.015792639752686</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="K22" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L22" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M22" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N22" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O22" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P22" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q22" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R22" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S22" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T22" t="n">
-        <v>180.7765070297192</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U22" t="n">
-        <v>130.0720545075893</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="V22" t="n">
-        <v>79.36760198545944</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="W22" t="n">
-        <v>54.72024516188256</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X22" t="n">
-        <v>54.72024516188256</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.72024516188256</v>
+        <v>18.11415531596316</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C23" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D23" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E23" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J23" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K23" t="n">
-        <v>4.015792639752686</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L23" t="n">
-        <v>53.71122655669217</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4066604736316</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N23" t="n">
-        <v>153.1020943905711</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="O23" t="n">
-        <v>200.7896319876343</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P23" t="n">
-        <v>200.7896319876343</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R23" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S23" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T23" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U23" t="n">
-        <v>150.0851794655044</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V23" t="n">
-        <v>150.0851794655044</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W23" t="n">
-        <v>150.0851794655044</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X23" t="n">
-        <v>99.38072694337451</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y23" t="n">
-        <v>99.38072694337451</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C24" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I24" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J24" t="n">
-        <v>4.015792639752686</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K24" t="n">
-        <v>4.015792639752686</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L24" t="n">
-        <v>53.71122655669217</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="M24" t="n">
-        <v>103.4066604736316</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="N24" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R24" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S24" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="T24" t="n">
-        <v>156.1291502061423</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="U24" t="n">
-        <v>105.4246976840124</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V24" t="n">
-        <v>54.72024516188256</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="W24" t="n">
-        <v>4.015792639752686</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="X24" t="n">
-        <v>4.015792639752686</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.015792639752686</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E25" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F25" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G25" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H25" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I25" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J25" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K25" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L25" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M25" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N25" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O25" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P25" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q25" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="R25" t="n">
-        <v>180.7765070297192</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="S25" t="n">
-        <v>180.7765070297192</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="T25" t="n">
-        <v>180.7765070297192</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="U25" t="n">
-        <v>130.0720545075893</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="V25" t="n">
-        <v>130.0720545075893</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="W25" t="n">
-        <v>130.0720545075893</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.67627442124464</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="C26" t="n">
-        <v>48.67627442124464</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="D26" t="n">
-        <v>48.67627442124464</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="E26" t="n">
-        <v>48.67627442124464</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="F26" t="n">
-        <v>48.67627442124464</v>
+        <v>84.42485816956594</v>
       </c>
       <c r="G26" t="n">
-        <v>48.67627442124464</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="H26" t="n">
-        <v>4.681729139310681</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="I26" t="n">
-        <v>4.681729139310681</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J26" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K26" t="n">
-        <v>53.71122655669217</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L26" t="n">
-        <v>97.3798169216298</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M26" t="n">
-        <v>97.3798169216298</v>
+        <v>121.638160822715</v>
       </c>
       <c r="N26" t="n">
-        <v>147.0752508385693</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O26" t="n">
-        <v>147.0752508385693</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P26" t="n">
-        <v>196.7706847555088</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S26" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T26" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U26" t="n">
-        <v>99.38072694337451</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="V26" t="n">
-        <v>99.38072694337451</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="W26" t="n">
-        <v>99.38072694337451</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="X26" t="n">
-        <v>48.67627442124464</v>
+        <v>124.7090644364032</v>
       </c>
       <c r="Y26" t="n">
-        <v>48.67627442124464</v>
+        <v>124.7090644364032</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C27" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D27" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E27" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F27" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G27" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H27" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I27" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J27" t="n">
-        <v>4.015792639752686</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K27" t="n">
-        <v>4.015792639752686</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="L27" t="n">
-        <v>53.71122655669217</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="M27" t="n">
-        <v>53.71122655669217</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="N27" t="n">
-        <v>101.3987641537553</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="O27" t="n">
-        <v>151.0941980706948</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P27" t="n">
-        <v>151.0941980706948</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R27" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S27" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T27" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U27" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V27" t="n">
-        <v>99.38072694337451</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W27" t="n">
-        <v>99.38072694337451</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X27" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="Y27" t="n">
-        <v>99.38072694337451</v>
+        <v>43.47471540317073</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.66314946332957</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C28" t="n">
-        <v>28.66314946332957</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D28" t="n">
-        <v>28.66314946332957</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="E28" t="n">
-        <v>28.66314946332957</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F28" t="n">
-        <v>28.66314946332957</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="G28" t="n">
-        <v>4.015792639752686</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="H28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K28" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L28" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M28" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N28" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O28" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P28" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q28" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="R28" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S28" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T28" t="n">
-        <v>130.0720545075893</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U28" t="n">
-        <v>79.36760198545944</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V28" t="n">
-        <v>79.36760198545944</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W28" t="n">
-        <v>79.36760198545944</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X28" t="n">
-        <v>79.36760198545944</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.66314946332957</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K29" t="n">
-        <v>53.71122655669217</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L29" t="n">
-        <v>53.71122655669217</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M29" t="n">
-        <v>97.3798169216298</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="N29" t="n">
-        <v>97.3798169216298</v>
+        <v>76.54140846029554</v>
       </c>
       <c r="O29" t="n">
-        <v>147.0752508385693</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="P29" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q29" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R29" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S29" t="n">
-        <v>156.1291502061423</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T29" t="n">
-        <v>105.4246976840124</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U29" t="n">
-        <v>105.4246976840124</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V29" t="n">
-        <v>54.72024516188256</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W29" t="n">
-        <v>54.72024516188256</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.4246976840124</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C30" t="n">
-        <v>105.4246976840124</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D30" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E30" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I30" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J30" t="n">
-        <v>4.015792639752686</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K30" t="n">
-        <v>53.71122655669217</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L30" t="n">
-        <v>53.71122655669217</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="M30" t="n">
-        <v>53.71122655669217</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="N30" t="n">
-        <v>53.71122655669217</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O30" t="n">
-        <v>101.3987641537553</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P30" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R30" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S30" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T30" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U30" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V30" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W30" t="n">
-        <v>150.0851794655044</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X30" t="n">
-        <v>150.0851794655044</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.0851794655044</v>
+        <v>43.47471540317073</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.66314946332957</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="C31" t="n">
-        <v>4.015792639752686</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D31" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E31" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F31" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G31" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H31" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I31" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J31" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K31" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L31" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M31" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N31" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O31" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P31" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q31" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R31" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S31" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T31" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U31" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V31" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W31" t="n">
-        <v>130.0720545075893</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="X31" t="n">
-        <v>130.0720545075893</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.36760198545944</v>
+        <v>124.0431279368452</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.0851794655044</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C32" t="n">
-        <v>105.4246976840124</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D32" t="n">
-        <v>54.72024516188256</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E32" t="n">
-        <v>54.72024516188256</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="F32" t="n">
-        <v>54.72024516188256</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="G32" t="n">
-        <v>54.72024516188256</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="H32" t="n">
-        <v>54.72024516188256</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="I32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K32" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L32" t="n">
-        <v>51.70333023681584</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M32" t="n">
-        <v>51.70333023681584</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N32" t="n">
-        <v>101.3987641537553</v>
+        <v>121.638160822715</v>
       </c>
       <c r="O32" t="n">
-        <v>151.0941980706948</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P32" t="n">
-        <v>200.7896319876343</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X32" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y32" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>200.7896319876343</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C33" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="D33" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E33" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F33" t="n">
-        <v>99.38072694337451</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G33" t="n">
-        <v>99.38072694337451</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H33" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I33" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J33" t="n">
-        <v>11.40910348623759</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K33" t="n">
-        <v>61.10453740317706</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L33" t="n">
-        <v>61.10453740317706</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="M33" t="n">
-        <v>101.3987641537553</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="N33" t="n">
-        <v>151.0941980706948</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="O33" t="n">
-        <v>151.0941980706948</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="P33" t="n">
-        <v>151.0941980706948</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U33" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V33" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W33" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X33" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y33" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.02891759766779</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C34" t="n">
-        <v>24.02891759766779</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D34" t="n">
-        <v>24.02891759766779</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="E34" t="n">
-        <v>24.02891759766779</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F34" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G34" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H34" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I34" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J34" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K34" t="n">
-        <v>24.02891759766779</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L34" t="n">
-        <v>61.11543652438698</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M34" t="n">
-        <v>110.8108704413265</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N34" t="n">
-        <v>160.5063043582659</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O34" t="n">
-        <v>194.7288303079373</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P34" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q34" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R34" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T34" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U34" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V34" t="n">
-        <v>99.38072694337451</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W34" t="n">
-        <v>48.67627442124464</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X34" t="n">
-        <v>24.02891759766779</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.02891759766779</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156.7950867057003</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C35" t="n">
-        <v>156.7950867057003</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D35" t="n">
-        <v>156.7950867057003</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E35" t="n">
-        <v>106.0906341835704</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F35" t="n">
-        <v>55.38618166144055</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G35" t="n">
-        <v>4.681729139310681</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H35" t="n">
-        <v>4.681729139310681</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I35" t="n">
-        <v>4.681729139310681</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J35" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K35" t="n">
-        <v>53.71122655669217</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L35" t="n">
-        <v>97.3798169216298</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M35" t="n">
-        <v>147.0752508385693</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="N35" t="n">
-        <v>147.0752508385693</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O35" t="n">
-        <v>196.7706847555088</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P35" t="n">
-        <v>196.7706847555088</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R35" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S35" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="T35" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="U35" t="n">
-        <v>200.7896319876343</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="V35" t="n">
-        <v>200.7896319876343</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W35" t="n">
-        <v>156.7950867057003</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X35" t="n">
-        <v>156.7950867057003</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="Y35" t="n">
-        <v>156.7950867057003</v>
+        <v>43.47471540317073</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C36" t="n">
-        <v>105.4246976840124</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D36" t="n">
-        <v>105.4246976840124</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E36" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F36" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G36" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H36" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I36" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J36" t="n">
-        <v>11.40910348623759</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K36" t="n">
-        <v>11.40910348623759</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L36" t="n">
-        <v>61.10453740317706</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="M36" t="n">
-        <v>110.7999713201165</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="N36" t="n">
-        <v>151.0941980706948</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="O36" t="n">
-        <v>200.7896319876343</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7896319876343</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q36" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R36" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S36" t="n">
-        <v>200.7896319876343</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="T36" t="n">
-        <v>200.7896319876343</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="U36" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="V36" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="W36" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X36" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.7896319876343</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C37" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K37" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L37" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M37" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N37" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O37" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P37" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q37" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R37" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S37" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T37" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U37" t="n">
-        <v>130.0720545075893</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V37" t="n">
-        <v>130.0720545075893</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W37" t="n">
-        <v>130.0720545075893</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="X37" t="n">
-        <v>130.0720545075893</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.36760198545944</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.38072694337451</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="C38" t="n">
-        <v>55.38618166144055</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="D38" t="n">
-        <v>55.38618166144055</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="E38" t="n">
-        <v>4.681729139310681</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="F38" t="n">
-        <v>4.681729139310681</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="G38" t="n">
-        <v>4.681729139310681</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="H38" t="n">
-        <v>4.681729139310681</v>
+        <v>44.14065190272872</v>
       </c>
       <c r="I38" t="n">
-        <v>4.681729139310681</v>
+        <v>3.856445635891503</v>
       </c>
       <c r="J38" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K38" t="n">
-        <v>53.71122655669217</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L38" t="n">
-        <v>101.3987641537553</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M38" t="n">
-        <v>101.3987641537553</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N38" t="n">
-        <v>101.3987641537553</v>
+        <v>116.0239590224227</v>
       </c>
       <c r="O38" t="n">
-        <v>151.0941980706948</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P38" t="n">
-        <v>200.7896319876343</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q38" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R38" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S38" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T38" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U38" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V38" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W38" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X38" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y38" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.38072694337451</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C39" t="n">
-        <v>48.67627442124464</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="D39" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E39" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F39" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G39" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H39" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I39" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J39" t="n">
-        <v>11.40910348623759</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K39" t="n">
-        <v>11.40910348623759</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L39" t="n">
-        <v>61.10453740317706</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M39" t="n">
-        <v>110.7999713201165</v>
+        <v>121.638160822715</v>
       </c>
       <c r="N39" t="n">
-        <v>110.7999713201165</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O39" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R39" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S39" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T39" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U39" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V39" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W39" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X39" t="n">
-        <v>99.38072694337451</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Y39" t="n">
-        <v>99.38072694337451</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K40" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L40" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M40" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N40" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O40" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P40" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.0720545075893</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R40" t="n">
-        <v>79.36760198545944</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S40" t="n">
-        <v>79.36760198545944</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T40" t="n">
-        <v>79.36760198545944</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U40" t="n">
-        <v>79.36760198545944</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V40" t="n">
-        <v>79.36760198545944</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="W40" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="X40" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.66314946332957</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.67627442124464</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="C41" t="n">
-        <v>48.67627442124464</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="D41" t="n">
-        <v>48.67627442124464</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="E41" t="n">
-        <v>48.67627442124464</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="F41" t="n">
-        <v>48.67627442124464</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="G41" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H41" t="n">
-        <v>48.67627442124464</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I41" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J41" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K41" t="n">
-        <v>47.68438300469032</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L41" t="n">
-        <v>97.3798169216298</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M41" t="n">
-        <v>97.3798169216298</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="N41" t="n">
-        <v>97.3798169216298</v>
+        <v>121.638160822715</v>
       </c>
       <c r="O41" t="n">
-        <v>147.0752508385693</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P41" t="n">
-        <v>196.7706847555088</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R41" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S41" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T41" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U41" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V41" t="n">
-        <v>200.7896319876343</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W41" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X41" t="n">
-        <v>99.38072694337451</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="Y41" t="n">
-        <v>48.67627442124464</v>
+        <v>38.67283801616371</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C42" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D42" t="n">
-        <v>99.38072694337451</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E42" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F42" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G42" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H42" t="n">
-        <v>54.72024516188256</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I42" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J42" t="n">
-        <v>11.40910348623759</v>
+        <v>10.58381998281841</v>
       </c>
       <c r="K42" t="n">
-        <v>11.40910348623759</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L42" t="n">
-        <v>61.10453740317706</v>
+        <v>89.54892110707272</v>
       </c>
       <c r="M42" t="n">
-        <v>110.7999713201165</v>
+        <v>129.0314716691999</v>
       </c>
       <c r="N42" t="n">
-        <v>110.7999713201165</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="O42" t="n">
-        <v>110.7999713201165</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0941980706948</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S42" t="n">
-        <v>200.7896319876343</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T42" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U42" t="n">
-        <v>150.0851794655044</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V42" t="n">
-        <v>150.0851794655044</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W42" t="n">
-        <v>150.0851794655044</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X42" t="n">
-        <v>150.0851794655044</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="Y42" t="n">
-        <v>150.0851794655044</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79.36760198545944</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="C43" t="n">
-        <v>79.36760198545944</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="D43" t="n">
-        <v>79.36760198545944</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="E43" t="n">
-        <v>79.36760198545944</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="F43" t="n">
-        <v>28.66314946332957</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="G43" t="n">
-        <v>4.015792639752686</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K43" t="n">
-        <v>4.015792639752686</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L43" t="n">
-        <v>41.10231156647188</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M43" t="n">
-        <v>90.79774548341136</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N43" t="n">
-        <v>140.4931794003508</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O43" t="n">
-        <v>174.7157053500222</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P43" t="n">
-        <v>180.7765070297192</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q43" t="n">
-        <v>180.7765070297192</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="R43" t="n">
-        <v>180.7765070297192</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="S43" t="n">
-        <v>180.7765070297192</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="T43" t="n">
-        <v>180.7765070297192</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="U43" t="n">
-        <v>180.7765070297192</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="V43" t="n">
-        <v>180.7765070297192</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="W43" t="n">
-        <v>130.0720545075893</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="X43" t="n">
-        <v>130.0720545075893</v>
+        <v>83.75892167000794</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.0720545075893</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>82.15561026058782</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>121.638160822715</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>155.5065095845499</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>42.67305969846066</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>40.2770280630527</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>79.75957862517986</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.242129187307</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>153.4646551369784</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>124.0431279368452</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>83.75892167000794</v>
       </c>
     </row>
   </sheetData>
@@ -9401,25 +9403,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>262.7568346648794</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L20" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M20" t="n">
-        <v>274.7849853934995</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8751450035847</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O20" t="n">
-        <v>274.5431641330531</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P20" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,28 +9479,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>182.5646328960234</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>165.8925254848475</v>
       </c>
       <c r="M21" t="n">
-        <v>188.7780910708764</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N21" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>189.2287463302419</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9565,10 +9567,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M22" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N22" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O22" t="n">
         <v>169.5633330205178</v>
@@ -9638,25 +9640,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>214.587604768856</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L23" t="n">
-        <v>280.0696625926461</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M23" t="n">
-        <v>274.7849853934995</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N23" t="n">
-        <v>273.8751450035847</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O23" t="n">
-        <v>272.5149860321679</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,22 +9716,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L24" t="n">
-        <v>185.2879282822859</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M24" t="n">
-        <v>188.7780910708764</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N24" t="n">
-        <v>176.2273991772734</v>
+        <v>158.8601744807202</v>
       </c>
       <c r="O24" t="n">
-        <v>189.2287463302419</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
         <v>130.625047228972</v>
@@ -9802,10 +9804,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M25" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N25" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O25" t="n">
         <v>169.5633330205178</v>
@@ -9875,25 +9877,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>264.7850127657646</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L26" t="n">
-        <v>273.9819418330483</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N26" t="n">
-        <v>273.8751450035847</v>
+        <v>261.9477329601715</v>
       </c>
       <c r="O26" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P26" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9951,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>185.2879282822859</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M27" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>176.2273991772734</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>189.2287463302419</v>
+        <v>169.8333435328035</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.6796377307795</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10039,10 +10041,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N28" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O28" t="n">
         <v>169.5633330205178</v>
@@ -10112,22 +10114,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>264.7850127657646</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L29" t="n">
         <v>229.8722545957376</v>
       </c>
       <c r="M29" t="n">
-        <v>268.6972646339017</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O29" t="n">
-        <v>274.5431641330531</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P29" t="n">
-        <v>275.6495788582964</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q29" t="n">
         <v>220.8075902863009</v>
@@ -10188,28 +10190,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>184.5928109969086</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>169.382688273438</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>167.9395334854188</v>
       </c>
       <c r="O30" t="n">
-        <v>187.2005682293567</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10276,10 +10278,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M31" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N31" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O31" t="n">
         <v>169.5633330205178</v>
@@ -10352,22 +10354,22 @@
         <v>214.587604768856</v>
       </c>
       <c r="L32" t="n">
-        <v>278.041484491761</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N32" t="n">
-        <v>273.8751450035847</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O32" t="n">
-        <v>274.5431641330531</v>
+        <v>258.5562094309273</v>
       </c>
       <c r="P32" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10428,25 +10430,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>184.5928109969086</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L33" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>179.2819222159661</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N33" t="n">
-        <v>178.2555772781585</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>178.9127025375022</v>
       </c>
       <c r="P33" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.6796377307795</v>
+        <v>167.2842349333412</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10513,10 +10515,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M34" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N34" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O34" t="n">
         <v>169.5633330205178</v>
@@ -10586,25 +10588,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>264.7850127657646</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L35" t="n">
-        <v>273.9819418330483</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M35" t="n">
-        <v>274.7849853934995</v>
+        <v>262.8575733500862</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O35" t="n">
-        <v>274.5431641330531</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P35" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10665,25 +10667,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L36" t="n">
-        <v>185.2879282822859</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
-        <v>188.7780910708764</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>168.7594084232482</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>189.2287463302419</v>
+        <v>169.8333435328035</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10750,10 +10752,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M37" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N37" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O37" t="n">
         <v>169.5633330205178</v>
@@ -10823,25 +10825,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>264.7850127657646</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L38" t="n">
-        <v>278.041484491761</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M38" t="n">
         <v>224.5875773965909</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O38" t="n">
-        <v>274.5431641330531</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P38" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,25 +10901,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L39" t="n">
-        <v>185.2879282822859</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M39" t="n">
-        <v>188.7780910708764</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>166.3281652347453</v>
       </c>
       <c r="O39" t="n">
-        <v>179.7325774753315</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>180.8224552258806</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
         <v>136.482229733871</v>
@@ -10987,10 +10989,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M40" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N40" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O40" t="n">
         <v>169.5633330205178</v>
@@ -11060,22 +11062,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>258.6972920061668</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L41" t="n">
-        <v>280.0696625926461</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>263.559101210845</v>
       </c>
       <c r="O41" t="n">
-        <v>274.5431641330531</v>
+        <v>258.5562094309273</v>
       </c>
       <c r="P41" t="n">
-        <v>275.6495788582964</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11139,25 +11141,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L42" t="n">
-        <v>185.2879282822859</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M42" t="n">
-        <v>188.7780910708764</v>
+        <v>178.4620472781367</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>158.8601744807202</v>
       </c>
       <c r="O42" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>171.3262863709703</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.6796377307795</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11224,10 +11226,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M43" t="n">
-        <v>185.6500473458235</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N43" t="n">
-        <v>174.6908138505109</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O43" t="n">
         <v>169.5633330205178</v>
@@ -11297,16 +11299,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>254.4689689730249</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>269.7536187999064</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>264.4689416007598</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>257.8881903014588</v>
       </c>
       <c r="O44" t="n">
         <v>224.3457561361446</v>
@@ -11315,7 +11317,7 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11379,10 +11381,10 @@
         <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>174.9718844895462</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>176.8506790274632</v>
       </c>
       <c r="N45" t="n">
         <v>128.05816928125</v>
@@ -11391,10 +11393,10 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>170.5064114331408</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>176.3635939380398</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11458,19 +11460,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>175.3340035530838</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>164.3747700577712</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23972,7 +23974,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>316.7233685504295</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -23981,10 +23983,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>364.6573574069224</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
@@ -24032,10 +24034,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6641911342608</v>
+        <v>335.7340935401375</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.4731947875588</v>
+        <v>346.805707547067</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>130.2446200193129</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -24054,16 +24056,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>116.152069503005</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>96.14184600087347</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>70.58115131796393</v>
       </c>
       <c r="I21" t="n">
         <v>86.50354346547167</v>
@@ -24099,16 +24101,16 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>154.1686549445916</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
-        <v>181.7113230427466</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>199.7919387530915</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -24139,7 +24141,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>117.6921809331995</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H22" t="n">
         <v>161.6340720089168</v>
@@ -24151,7 +24153,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K22" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S22" t="n">
-        <v>222.3574069614225</v>
+        <v>182.4760427572537</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U22" t="n">
-        <v>235.8548623941556</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V22" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>261.6916936320744</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>205.7872640591107</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>339.502533027718</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24215,7 +24217,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>357.0964554836323</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>414.8547654038309</v>
@@ -24257,19 +24259,19 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T23" t="n">
-        <v>172.7677091995118</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>216.3502579855125</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>288.6518573183505</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>310.6487527963857</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6641911342608</v>
+        <v>330.9802349270005</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>125.490761406176</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24333,25 +24335,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>133.8341083146125</v>
       </c>
       <c r="T24" t="n">
-        <v>154.1686549445916</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>181.7113230427466</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>199.7919387530915</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>96.77721617629061</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24385,7 +24387,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>64.43796167243782</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K25" t="n">
         <v>14.77440971783335</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.76069987584818</v>
+        <v>39.87933567167934</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>182.4760427572537</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3324659915077</v>
+        <v>193.2049604004758</v>
       </c>
       <c r="U25" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24427,7 +24429,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>175.9429519354007</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24449,16 +24451,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>343.2366715511186</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H26" t="n">
-        <v>294.5893035590387</v>
+        <v>298.2625391839845</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.65341470396851</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>172.7677091995118</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>217.0095351200749</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24506,7 +24508,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>320.6641911342608</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -24528,10 +24530,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>105.8360257102653</v>
+        <v>116.152069503005</v>
       </c>
       <c r="F27" t="n">
-        <v>99.29235511987227</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
         <v>136.0232102050423</v>
@@ -24570,22 +24572,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>118.7642059087358</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>214.8618411589681</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>164.5802654043094</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>140.202327286515</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>109.1242023103505</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -24613,10 +24615,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>143.4887056747669</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H28" t="n">
-        <v>161.6340720089168</v>
+        <v>126.5065664178849</v>
       </c>
       <c r="I28" t="n">
         <v>153.7585467974036</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.76069987584818</v>
+        <v>39.87933567167934</v>
       </c>
       <c r="R28" t="n">
         <v>173.3911476697823</v>
@@ -24652,10 +24654,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>178.1350579945991</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24667,7 +24669,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.5512658708597</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24728,22 +24730,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
-        <v>161.6510747598622</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T29" t="n">
-        <v>172.7677091995118</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>211.5963993723756</v>
       </c>
       <c r="V29" t="n">
-        <v>278.3358135256108</v>
+        <v>288.6518573183505</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>310.6487527963857</v>
       </c>
       <c r="X29" t="n">
-        <v>320.6641911342608</v>
+        <v>335.7340935401375</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121.1582486466678</v>
+        <v>125.490761406176</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>136.0232102050423</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.49757176418265</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
         <v>168.9616139056444</v>
@@ -24816,13 +24818,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>169.3341240174464</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.8862834937752</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9356696758612</v>
+        <v>127.4551887270335</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>109.1242023103505</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>107.0932599690303</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
@@ -24895,16 +24897,16 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>250.9650712963836</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.5512658708597</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24914,31 +24916,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.5190019944865</v>
+        <v>343.8350457872262</v>
       </c>
       <c r="C32" t="n">
-        <v>322.7712187152656</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>306.4073247576898</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>372.8256350240713</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>374.9734011996621</v>
       </c>
       <c r="H32" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
-        <v>155.0268998712154</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>346.805707547067</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>125.490761406176</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>131.1442197232321</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>110.9849179836137</v>
       </c>
       <c r="E33" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>93.30882408664073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
-        <v>60.26510752522421</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I33" t="n">
-        <v>42.28966650179463</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25053,7 +25055,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -25081,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>111.8471185821673</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G34" t="n">
         <v>167.8895889301081</v>
@@ -25126,19 +25128,19 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U34" t="n">
-        <v>235.8548623941556</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V34" t="n">
-        <v>202.7389430700306</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>235.895168890507</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>201.7394766769682</v>
+        <v>186.2589957281404</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>343.8350457872262</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25160,13 +25162,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>332.9206277583789</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>357.0964554836323</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6573574069224</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
@@ -25175,7 +25177,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>170.7374461325073</v>
       </c>
       <c r="T35" t="n">
         <v>222.9651171964204</v>
@@ -25211,16 +25213,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>288.6518573183505</v>
       </c>
       <c r="W35" t="n">
-        <v>306.9755171714399</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>346.805707547067</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>115.1747176134363</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>126.811706963724</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>105.8360257102653</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -25251,7 +25253,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>129.0802497014755</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>189.5296714761693</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25312,10 +25314,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>117.1391449342938</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>124.6046832591782</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -25357,7 +25359,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R37" t="n">
-        <v>173.3911476697823</v>
+        <v>133.5097834656135</v>
       </c>
       <c r="S37" t="n">
         <v>222.3574069614225</v>
@@ -25366,19 +25368,19 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
-        <v>235.8548623941556</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>246.2112126832467</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>191.0128543412774</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.5512658708597</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>333.5190019944865</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>323.430495849828</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>332.9206277583789</v>
+        <v>343.2366715511186</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>380.3865369473614</v>
       </c>
       <c r="H38" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>165.3429436639552</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>165.9835875193704</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
@@ -25457,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>336.4896637543272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>130.2446200193129</v>
       </c>
       <c r="C39" t="n">
-        <v>120.8281759304924</v>
+        <v>131.1442197232321</v>
       </c>
       <c r="D39" t="n">
-        <v>101.8985466109685</v>
+        <v>106.2310593704767</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -25518,13 +25520,13 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>118.7642059087358</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>174.4597690702927</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25536,7 +25538,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>163.7897872144172</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9356696758612</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25591,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.56329187893961</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R40" t="n">
-        <v>123.1937396728737</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S40" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T40" t="n">
-        <v>228.3324659915077</v>
+        <v>188.4511017873388</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>246.1709061868954</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>213.0549868627703</v>
       </c>
       <c r="W40" t="n">
-        <v>235.895168890507</v>
+        <v>250.9650712963837</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25640,13 +25642,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>379.727259812799</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I41" t="n">
-        <v>161.010430904447</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
         <v>0.6592771345624158</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>101.9694584967082</v>
       </c>
       <c r="S41" t="n">
         <v>205.8649517235392</v>
@@ -25688,13 +25690,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>300.332709003646</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>320.6641911342608</v>
+        <v>330.9802349270005</v>
       </c>
       <c r="Y41" t="n">
-        <v>336.4896637543272</v>
+        <v>346.805707547067</v>
       </c>
     </row>
     <row r="42">
@@ -25710,10 +25712,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>95.91501557773699</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>111.8195567434968</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
@@ -25725,7 +25727,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I42" t="n">
-        <v>36.3061354685631</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,22 +25760,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>148.1851239113601</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>192.0273668354863</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>210.1079825458312</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>164.5802654043094</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>168.5436458275541</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.8862834937752</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -25795,13 +25797,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>95.96161341289593</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>143.4887056747669</v>
+        <v>128.0082247259392</v>
       </c>
       <c r="H43" t="n">
-        <v>161.6340720089168</v>
+        <v>121.752707804748</v>
       </c>
       <c r="I43" t="n">
         <v>153.7585467974036</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>39.87933567167934</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>138.2636420787504</v>
       </c>
       <c r="S43" t="n">
         <v>222.3574069614225</v>
@@ -25846,7 +25848,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>235.895168890507</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25916,22 +25918,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>183.0837529922515</v>
       </c>
       <c r="U44" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>288.6518573183505</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>315.4026114095227</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>346.805707547067</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>125.490761406176</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>131.1442197232321</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
@@ -26010,7 +26012,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>168.5436458275541</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>140.202327286515</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>127.4551887270335</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26086,10 +26088,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>191.0128543412773</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>178.8673096635994</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372255.3755088836</v>
+        <v>363932.6109023131</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372255.3755088833</v>
+        <v>363932.6109023132</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372255.3755088836</v>
+        <v>363932.6109023132</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372255.3755088834</v>
+        <v>363932.610902313</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372255.3755088835</v>
+        <v>363932.6109023132</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372255.3755088836</v>
+        <v>363932.6109023131</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372255.3755088835</v>
+        <v>363932.610902313</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372255.3755088836</v>
+        <v>363932.610902313</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>328907.7982288524</v>
+        <v>363932.610902313</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>42439.71590049705</v>
       </c>
       <c r="C2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="D2" t="n">
         <v>42439.71590049707</v>
       </c>
       <c r="E2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="F2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="G2" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="H2" t="n">
-        <v>48032.95167856561</v>
+        <v>46959.04656804036</v>
       </c>
       <c r="I2" t="n">
-        <v>48032.95167856562</v>
+        <v>46959.04656804039</v>
       </c>
       <c r="J2" t="n">
-        <v>48032.95167856562</v>
+        <v>46959.04656804039</v>
       </c>
       <c r="K2" t="n">
-        <v>48032.95167856561</v>
+        <v>46959.04656804039</v>
       </c>
       <c r="L2" t="n">
-        <v>48032.95167856561</v>
+        <v>46959.04656804039</v>
       </c>
       <c r="M2" t="n">
-        <v>48032.95167856561</v>
+        <v>46959.04656804036</v>
       </c>
       <c r="N2" t="n">
-        <v>48032.9516785656</v>
+        <v>46959.04656804037</v>
       </c>
       <c r="O2" t="n">
-        <v>48032.95167856561</v>
+        <v>46959.04656804036</v>
       </c>
       <c r="P2" t="n">
-        <v>42439.71590049706</v>
+        <v>46959.04656804039</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13543.7124542379</v>
+        <v>10760.35099456259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9426.917582396205</v>
       </c>
     </row>
     <row r="4">
@@ -26433,31 +26435,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42.80100840272841</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="I4" t="n">
-        <v>42.80100840272841</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="J4" t="n">
-        <v>42.8010084027284</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="K4" t="n">
-        <v>42.80100840272841</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="L4" t="n">
-        <v>42.80100840272841</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="M4" t="n">
-        <v>42.80100840272841</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="N4" t="n">
-        <v>42.80100840272841</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="O4" t="n">
-        <v>42.80100840272841</v>
+        <v>34.5831853959544</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>34.5831853959544</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="I5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="J5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="K5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="L5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="M5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="N5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="O5" t="n">
-        <v>3052.002406212041</v>
+        <v>2424.786943613465</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2424.786943613465</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>8812.115900497054</v>
       </c>
       <c r="C6" t="n">
-        <v>8812.115900497069</v>
+        <v>8812.115900497061</v>
       </c>
       <c r="D6" t="n">
         <v>8812.115900497069</v>
       </c>
       <c r="E6" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="F6" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="G6" t="n">
-        <v>42439.71590049707</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="H6" t="n">
-        <v>31394.43580971294</v>
+        <v>33739.32544446835</v>
       </c>
       <c r="I6" t="n">
-        <v>44938.14826395085</v>
+        <v>44499.67643903097</v>
       </c>
       <c r="J6" t="n">
-        <v>44938.14826395085</v>
+        <v>44499.67643903097</v>
       </c>
       <c r="K6" t="n">
-        <v>44938.14826395084</v>
+        <v>44499.67643903098</v>
       </c>
       <c r="L6" t="n">
-        <v>44938.14826395084</v>
+        <v>44499.67643903097</v>
       </c>
       <c r="M6" t="n">
-        <v>44938.14826395084</v>
+        <v>44499.67643903094</v>
       </c>
       <c r="N6" t="n">
-        <v>44938.14826395083</v>
+        <v>44499.67643903095</v>
       </c>
       <c r="O6" t="n">
-        <v>44938.14826395084</v>
+        <v>44499.67643903094</v>
       </c>
       <c r="P6" t="n">
-        <v>42439.71590049706</v>
+        <v>35072.75885663476</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="K4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
     </row>
   </sheetData>
@@ -36121,25 +36123,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M20" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N20" t="n">
-        <v>50.19740799690857</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O20" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>48.16922989602339</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="M21" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36287,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M22" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N22" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416885</v>
       </c>
       <c r="O22" t="n">
         <v>34.56820802997106</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L23" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M23" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>50.19740799690857</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O23" t="n">
-        <v>48.16922989602337</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L24" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M24" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N24" t="n">
-        <v>48.16922989602339</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="O24" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M25" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N25" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O25" t="n">
         <v>34.56820802997106</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L26" t="n">
-        <v>44.10968723731074</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N26" t="n">
-        <v>50.19740799690857</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>50.19740799690857</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M28" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N28" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O28" t="n">
         <v>34.56820802997106</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>44.10968723731074</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O29" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P29" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q29" t="n">
         <v>4.059542658712616</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O30" t="n">
-        <v>48.16922989602339</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M31" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N31" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O31" t="n">
         <v>34.56820802997106</v>
@@ -37072,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>48.16922989602339</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N32" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O32" t="n">
-        <v>50.19740799690857</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="P32" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K33" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>40.70123914199824</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N33" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.19740799690857</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M34" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N34" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O34" t="n">
         <v>34.56820802997106</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>44.10968723731074</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>50.19740799690857</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O35" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L36" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>50.19740799690857</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M37" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N37" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O37" t="n">
         <v>34.56820802997106</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L38" t="n">
-        <v>48.16922989602339</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O38" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P38" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L39" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M39" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="O39" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M40" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N40" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O40" t="n">
         <v>34.56820802997106</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>44.10968723731074</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L41" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O41" t="n">
-        <v>50.19740799690857</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="P41" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>4.059542658712616</v>
@@ -37859,25 +37861,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L42" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M42" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>40.70123914199824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.19740799690857</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37946,10 @@
         <v>37.46113022900929</v>
       </c>
       <c r="M43" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N43" t="n">
-        <v>50.19740799690857</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O43" t="n">
         <v>34.56820802997106</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>34.21045329478271</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>37.46113022900929</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>34.56820802997106</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>6.12202189868384</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
